--- a/biology/Botanique/Arbre_d'ombrage/Arbre_d'ombrage.xlsx
+++ b/biology/Botanique/Arbre_d'ombrage/Arbre_d'ombrage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_d%27ombrage</t>
+          <t>Arbre_d'ombrage</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un arbre d'ombrage est un arbre qui a pour premier rôle de fournir de l'ombre dans son environnement. Il peut s'agir d'arbres particulièrement identifiés pour cette utilité : souvent des arbres de grande taille, au houppier étalé, utilisés soit pour ombrager les rues et les abords des habitations, pour le confort des populations, soit en association avec des cultures pérennes ou non, pour limiter l'insolation de certaines cultures[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un arbre d'ombrage est un arbre qui a pour premier rôle de fournir de l'ombre dans son environnement. Il peut s'agir d'arbres particulièrement identifiés pour cette utilité : souvent des arbres de grande taille, au houppier étalé, utilisés soit pour ombrager les rues et les abords des habitations, pour le confort des populations, soit en association avec des cultures pérennes ou non, pour limiter l'insolation de certaines cultures,.
 </t>
         </is>
       </c>
